--- a/7082_orders.xlsx
+++ b/7082_orders.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">Delivery</t>
   </si>
@@ -29,6 +29,9 @@
     <t xml:space="preserve">Accounting Number</t>
   </si>
   <si>
+    <t xml:space="preserve">3bMonday</t>
+  </si>
+  <si>
     <t xml:space="preserve">2bMonday</t>
   </si>
   <si>
@@ -65,9 +68,6 @@
     <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Doses/Breed</t>
-  </si>
-  <si>
     <t xml:space="preserve">THS</t>
   </si>
   <si>
@@ -77,19 +77,19 @@
     <t xml:space="preserve">BLACK RIVER BAREFOOT 38591</t>
   </si>
   <si>
-    <t xml:space="preserve">BULLTAIL 8000</t>
+    <t xml:space="preserve">BLACK RIVER GREEN 1 38791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLACK RIVER GREEN 2 38801</t>
   </si>
   <si>
     <t xml:space="preserve">Farm 37281/BOC 28</t>
   </si>
   <si>
-    <t xml:space="preserve">Farm 37301/BOC 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 6179 Stoneybrook Farrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 74411-Farrowing</t>
+    <t xml:space="preserve">Farm 3730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 74401-Farrowing (fox ridge)</t>
   </si>
   <si>
     <t xml:space="preserve">Farm 76841 Farrowing</t>
@@ -110,7 +110,16 @@
     <t xml:space="preserve">FARM 76921</t>
   </si>
   <si>
+    <t xml:space="preserve">MWF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HILL SOW FARM</t>
+  </si>
+  <si>
     <t xml:space="preserve">M&amp;D FARMS FARROWING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCQUEEN FARMS INC 32061</t>
   </si>
   <si>
     <t xml:space="preserve">OAK SPRINGS FARMS</t>
@@ -465,26 +474,26 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="14.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="28.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="32.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="8.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="9.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="8.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="9.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="11.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="9.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="11.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="10.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="11.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="10.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="10.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="8.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="10.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="8.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="10.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="5.71" hidden="0" customWidth="1"/>
-    <col min="18" max="18" width="11.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="10.71" hidden="0" customWidth="1"/>
+    <col min="18" max="18" width="5.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -561,26 +570,24 @@
       </c>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="H2" t="n">
-        <v>21</v>
-      </c>
-      <c r="I2"/>
+      <c r="H2"/>
+      <c r="I2" t="n">
+        <v>79</v>
+      </c>
       <c r="J2"/>
       <c r="K2"/>
-      <c r="L2" t="n">
-        <v>20</v>
-      </c>
-      <c r="M2"/>
+      <c r="L2"/>
+      <c r="M2" t="n">
+        <v>30</v>
+      </c>
       <c r="N2"/>
       <c r="O2"/>
-      <c r="P2" t="n">
-        <v>89</v>
-      </c>
+      <c r="P2"/>
       <c r="Q2" t="n">
+        <v>21</v>
+      </c>
+      <c r="R2" t="n">
         <v>130</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.09677419354839</v>
       </c>
     </row>
     <row r="3">
@@ -597,30 +604,28 @@
         <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>2680</v>
+        <v>38791</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3" t="n">
-        <v>330</v>
-      </c>
-      <c r="I3"/>
+      <c r="H3"/>
+      <c r="I3" t="n">
+        <v>80</v>
+      </c>
       <c r="J3"/>
       <c r="K3"/>
-      <c r="L3" t="n">
-        <v>200</v>
-      </c>
-      <c r="M3"/>
+      <c r="L3"/>
+      <c r="M3" t="n">
+        <v>40</v>
+      </c>
       <c r="N3"/>
       <c r="O3"/>
-      <c r="P3" t="n">
-        <v>270</v>
-      </c>
+      <c r="P3"/>
       <c r="Q3" t="n">
-        <v>800</v>
+        <v>20</v>
       </c>
       <c r="R3" t="n">
-        <v>1.90023752969121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -637,30 +642,28 @@
         <v>22</v>
       </c>
       <c r="E4" t="n">
-        <v>37281</v>
+        <v>38801</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4" t="n">
-        <v>140</v>
-      </c>
-      <c r="I4"/>
+      <c r="H4"/>
+      <c r="I4" t="n">
+        <v>80</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="L4" t="n">
-        <v>100</v>
-      </c>
-      <c r="M4"/>
+      <c r="L4"/>
+      <c r="M4" t="n">
+        <v>40</v>
+      </c>
       <c r="N4"/>
       <c r="O4"/>
-      <c r="P4" t="n">
-        <v>220</v>
-      </c>
+      <c r="P4"/>
       <c r="Q4" t="n">
-        <v>460</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>2.27722772277228</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
@@ -677,30 +680,28 @@
         <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>37301</v>
+        <v>37281</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5" t="n">
-        <v>20</v>
-      </c>
-      <c r="I5"/>
+      <c r="H5"/>
+      <c r="I5" t="n">
+        <v>160</v>
+      </c>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="L5" t="n">
-        <v>60</v>
-      </c>
-      <c r="M5"/>
+      <c r="L5"/>
+      <c r="M5" t="n">
+        <v>80</v>
+      </c>
       <c r="N5"/>
       <c r="O5"/>
-      <c r="P5" t="n">
-        <v>125</v>
-      </c>
+      <c r="P5"/>
       <c r="Q5" t="n">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83035714285714</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -717,30 +718,28 @@
         <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>6179</v>
+        <v>37301</v>
       </c>
       <c r="F6"/>
-      <c r="G6" t="n">
-        <v>105</v>
-      </c>
+      <c r="G6"/>
       <c r="H6"/>
-      <c r="I6"/>
+      <c r="I6" t="n">
+        <v>124</v>
+      </c>
       <c r="J6"/>
-      <c r="K6" t="n">
-        <v>115</v>
-      </c>
+      <c r="K6"/>
       <c r="L6"/>
-      <c r="M6"/>
+      <c r="M6" t="n">
+        <v>40</v>
+      </c>
       <c r="N6"/>
-      <c r="O6" t="n">
-        <v>200</v>
-      </c>
+      <c r="O6"/>
       <c r="P6"/>
       <c r="Q6" t="n">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="R6" t="n">
-        <v>1.97183098591549</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7">
@@ -757,18 +756,18 @@
         <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>74411</v>
+        <v>74401</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M7"/>
       <c r="N7"/>
@@ -776,10 +775,10 @@
       <c r="P7" t="n">
         <v>46</v>
       </c>
-      <c r="Q7" t="n">
-        <v>138</v>
-      </c>
-      <c r="R7"/>
+      <c r="Q7"/>
+      <c r="R7" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -792,33 +791,31 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>76841</v>
+        <v>74401</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="H8" t="n">
-        <v>50</v>
-      </c>
-      <c r="I8"/>
+      <c r="H8"/>
+      <c r="I8" t="n">
+        <v>86</v>
+      </c>
       <c r="J8"/>
       <c r="K8"/>
-      <c r="L8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M8"/>
+      <c r="L8"/>
+      <c r="M8" t="n">
+        <v>34</v>
+      </c>
       <c r="N8"/>
       <c r="O8"/>
-      <c r="P8" t="n">
-        <v>170</v>
-      </c>
+      <c r="P8"/>
       <c r="Q8" t="n">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="R8" t="n">
-        <v>2.32142857142857</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9">
@@ -832,33 +829,31 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
-        <v>76851</v>
+        <v>76841</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9" t="n">
-        <v>40</v>
-      </c>
-      <c r="I9"/>
+      <c r="H9"/>
+      <c r="I9" t="n">
+        <v>120</v>
+      </c>
       <c r="J9"/>
       <c r="K9"/>
-      <c r="L9" t="n">
-        <v>40</v>
-      </c>
-      <c r="M9"/>
+      <c r="L9"/>
+      <c r="M9" t="n">
+        <v>25</v>
+      </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" t="n">
-        <v>195</v>
-      </c>
+      <c r="P9"/>
       <c r="Q9" t="n">
-        <v>275</v>
+        <v>65</v>
       </c>
       <c r="R9" t="n">
-        <v>2.3109243697479</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -872,33 +867,31 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="n">
-        <v>76871</v>
+        <v>76851</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="H10" t="n">
-        <v>30</v>
-      </c>
-      <c r="I10"/>
+      <c r="H10"/>
+      <c r="I10" t="n">
+        <v>40</v>
+      </c>
       <c r="J10"/>
       <c r="K10"/>
-      <c r="L10" t="n">
-        <v>190</v>
-      </c>
-      <c r="M10"/>
+      <c r="L10"/>
+      <c r="M10" t="n">
+        <v>70</v>
+      </c>
       <c r="N10"/>
       <c r="O10"/>
-      <c r="P10" t="n">
-        <v>55</v>
-      </c>
+      <c r="P10"/>
       <c r="Q10" t="n">
-        <v>275</v>
+        <v>105</v>
       </c>
       <c r="R10" t="n">
-        <v>2.35042735042735</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11">
@@ -912,33 +905,31 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>76881</v>
+        <v>76871</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="H11" t="n">
-        <v>55</v>
-      </c>
-      <c r="I11"/>
+      <c r="H11"/>
+      <c r="I11" t="n">
+        <v>52</v>
+      </c>
       <c r="J11"/>
       <c r="K11"/>
-      <c r="L11" t="n">
-        <v>40</v>
-      </c>
-      <c r="M11"/>
+      <c r="L11"/>
+      <c r="M11" t="n">
+        <v>88</v>
+      </c>
       <c r="N11"/>
       <c r="O11"/>
-      <c r="P11" t="n">
-        <v>185</v>
-      </c>
+      <c r="P11"/>
       <c r="Q11" t="n">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="R11" t="n">
-        <v>2.17054263565891</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12">
@@ -952,33 +943,31 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="n">
-        <v>76891</v>
+        <v>76881</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="H12" t="n">
-        <v>45</v>
-      </c>
-      <c r="I12"/>
+      <c r="H12"/>
+      <c r="I12" t="n">
+        <v>24</v>
+      </c>
       <c r="J12"/>
       <c r="K12"/>
-      <c r="L12" t="n">
-        <v>45</v>
-      </c>
-      <c r="M12"/>
+      <c r="L12"/>
+      <c r="M12" t="n">
+        <v>32</v>
+      </c>
       <c r="N12"/>
       <c r="O12"/>
-      <c r="P12" t="n">
-        <v>184</v>
-      </c>
+      <c r="P12"/>
       <c r="Q12" t="n">
-        <v>274</v>
+        <v>162</v>
       </c>
       <c r="R12" t="n">
-        <v>2.12403100775194</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13">
@@ -992,33 +981,31 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="n">
-        <v>76921</v>
+        <v>76891</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="H13" t="n">
-        <v>120</v>
-      </c>
-      <c r="I13"/>
+      <c r="H13"/>
+      <c r="I13" t="n">
+        <v>58</v>
+      </c>
       <c r="J13"/>
       <c r="K13"/>
-      <c r="L13" t="n">
-        <v>120</v>
-      </c>
-      <c r="M13"/>
+      <c r="L13"/>
+      <c r="M13" t="n">
+        <v>26</v>
+      </c>
       <c r="N13"/>
       <c r="O13"/>
-      <c r="P13" t="n">
-        <v>180</v>
-      </c>
+      <c r="P13"/>
       <c r="Q13" t="n">
-        <v>420</v>
+        <v>138</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14">
@@ -1032,38 +1019,36 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
-        <v>68091</v>
+        <v>76921</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="H14" t="n">
-        <v>35</v>
-      </c>
-      <c r="I14"/>
+      <c r="H14"/>
+      <c r="I14" t="n">
+        <v>50</v>
+      </c>
       <c r="J14"/>
       <c r="K14"/>
-      <c r="L14" t="n">
-        <v>19</v>
-      </c>
-      <c r="M14"/>
+      <c r="L14"/>
+      <c r="M14" t="n">
+        <v>50</v>
+      </c>
       <c r="N14"/>
       <c r="O14"/>
-      <c r="P14" t="n">
-        <v>61</v>
-      </c>
+      <c r="P14"/>
       <c r="Q14" t="n">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="R14" t="n">
-        <v>2.25490196078431</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B15" t="n">
         <v>7082</v>
@@ -1075,30 +1060,28 @@
         <v>33</v>
       </c>
       <c r="E15" t="n">
-        <v>6213</v>
+        <v>5056</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="H15" t="n">
-        <v>50</v>
-      </c>
-      <c r="I15"/>
+      <c r="H15"/>
+      <c r="I15" t="n">
+        <v>112</v>
+      </c>
       <c r="J15"/>
       <c r="K15"/>
-      <c r="L15" t="n">
+      <c r="L15"/>
+      <c r="M15" t="n">
         <v>20</v>
       </c>
-      <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
-      <c r="P15" t="n">
-        <v>110</v>
-      </c>
+      <c r="P15"/>
       <c r="Q15" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="R15" t="n">
-        <v>2.09302325581395</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16">
@@ -1115,30 +1098,28 @@
         <v>34</v>
       </c>
       <c r="E16" t="n">
-        <v>68111</v>
+        <v>68091</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="H16" t="n">
-        <v>90</v>
-      </c>
-      <c r="I16"/>
+      <c r="H16"/>
+      <c r="I16" t="n">
+        <v>56</v>
+      </c>
       <c r="J16"/>
       <c r="K16"/>
-      <c r="L16" t="n">
-        <v>50</v>
-      </c>
-      <c r="M16"/>
+      <c r="L16"/>
+      <c r="M16" t="n">
+        <v>14</v>
+      </c>
       <c r="N16"/>
       <c r="O16"/>
-      <c r="P16" t="n">
-        <v>110</v>
-      </c>
+      <c r="P16"/>
       <c r="Q16" t="n">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="R16" t="n">
-        <v>2.23214285714286</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -1155,30 +1136,28 @@
         <v>35</v>
       </c>
       <c r="E17" t="n">
-        <v>68131</v>
-      </c>
-      <c r="F17" t="n">
-        <v>125</v>
-      </c>
+        <v>32061</v>
+      </c>
+      <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17" t="n">
-        <v>65</v>
-      </c>
+      <c r="I17" t="n">
+        <v>78</v>
+      </c>
+      <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17" t="n">
-        <v>60</v>
-      </c>
+      <c r="M17" t="n">
+        <v>28</v>
+      </c>
+      <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17" t="n">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="R17" t="n">
-        <v>2.42718446601942</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18">
@@ -1195,30 +1174,28 @@
         <v>36</v>
       </c>
       <c r="E18" t="n">
-        <v>38441</v>
+        <v>6213</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
-      <c r="H18" t="n">
-        <v>180</v>
-      </c>
-      <c r="I18"/>
+      <c r="H18"/>
+      <c r="I18" t="n">
+        <v>60</v>
+      </c>
       <c r="J18"/>
       <c r="K18"/>
-      <c r="L18" t="n">
-        <v>18</v>
-      </c>
-      <c r="M18"/>
+      <c r="L18"/>
+      <c r="M18" t="n">
+        <v>20</v>
+      </c>
       <c r="N18"/>
       <c r="O18"/>
-      <c r="P18" t="n">
-        <v>50</v>
-      </c>
+      <c r="P18"/>
       <c r="Q18" t="n">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="R18" t="n">
-        <v>2.15652173913043</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19">
@@ -1235,30 +1212,26 @@
         <v>37</v>
       </c>
       <c r="E19" t="n">
-        <v>68151</v>
+        <v>68111</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="H19" t="n">
-        <v>115</v>
-      </c>
-      <c r="I19"/>
+      <c r="H19"/>
+      <c r="I19" t="n">
+        <v>110</v>
+      </c>
       <c r="J19"/>
       <c r="K19"/>
-      <c r="L19" t="n">
-        <v>60</v>
-      </c>
+      <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
-      <c r="P19" t="n">
-        <v>75</v>
-      </c>
+      <c r="P19"/>
       <c r="Q19" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="R19" t="n">
-        <v>2.33644859813084</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20">
@@ -1275,30 +1248,140 @@
         <v>38</v>
       </c>
       <c r="E20" t="n">
-        <v>68161</v>
+        <v>68131</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="H20" t="n">
-        <v>90</v>
-      </c>
-      <c r="I20"/>
+      <c r="H20"/>
+      <c r="I20" t="n">
+        <v>115</v>
+      </c>
       <c r="J20"/>
       <c r="K20"/>
-      <c r="L20" t="n">
+      <c r="L20"/>
+      <c r="M20" t="n">
         <v>50</v>
       </c>
-      <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
-      <c r="P20" t="n">
-        <v>110</v>
-      </c>
+      <c r="P20"/>
       <c r="Q20" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="R20" t="n">
-        <v>2.17391304347826</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7082</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="n">
+        <v>38441</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21" t="n">
+        <v>140</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21" t="n">
+        <v>45</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21" t="n">
+        <v>50</v>
+      </c>
+      <c r="R21" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7082</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="n">
+        <v>68151</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22" t="n">
+        <v>100</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22" t="n">
+        <v>65</v>
+      </c>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22" t="n">
+        <v>55</v>
+      </c>
+      <c r="R22" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="n">
+        <v>7082</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="n">
+        <v>68161</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23" t="n">
+        <v>115</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23" t="n">
+        <v>115</v>
+      </c>
+      <c r="R23" t="n">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
